--- a/codec/config & edit.xlsx
+++ b/codec/config & edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gry/Downloads/codec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gry/Repos/HackintoshTools-Thinkpad-X1E/codec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF3A648-65EE-A742-BBD4-1E6589F2E884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B098D2D-90E2-3541-889A-8ADFAB3F4F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{68CE3CCA-2F0F-EA4F-AA06-3EB6905FC688}"/>
+    <workbookView xWindow="23700" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{68CE3CCA-2F0F-EA4F-AA06-3EB6905FC688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>9-&gt;34-&gt;25</t>
   </si>
   <si>
-    <t>8-&gt;35-&gt;28</t>
-  </si>
-  <si>
     <t>7-&gt;36-&gt;18</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>8-&gt;35-&gt;18</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,22 +594,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -626,25 +626,25 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -661,25 +661,25 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -699,25 +699,25 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -731,465 +731,465 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
